--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:19:28+00:00</t>
+    <t>2021-09-01T13:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:21:06+00:00</t>
+    <t>2021-09-14T14:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,16 +90,10 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>DBID</t>
-  </si>
-  <si>
-    <t>Code</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
   </si>
   <si>
     <t/>
@@ -373,7 +367,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,42 +381,26 @@
       <c r="A1" t="s" s="1">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="B4" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from openIMIS Identifie" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from openIMIS Identif" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-openimis-identifiers.xlsx
+++ b/ValueSet-openimis-identifiers.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
